--- a/Hoa10.xlsx
+++ b/Hoa10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CauHoi" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>maCH</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Dễ Ăn</t>
   </si>
   <si>
-    <t>môn học</t>
-  </si>
-  <si>
-    <t>Khối</t>
-  </si>
-  <si>
     <t>Số hạt nơtron có trong 1 nguyên tử Br là</t>
   </si>
   <si>
@@ -320,6 +314,15 @@
   </si>
   <si>
     <t>tham khảo bt chương 8</t>
+  </si>
+  <si>
+    <t>maMH</t>
+  </si>
+  <si>
+    <t>maKhoi</t>
+  </si>
+  <si>
+    <t>TenCD</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -738,13 +741,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -752,19 +755,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,19 +775,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -792,19 +795,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -812,19 +815,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,19 +835,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -852,19 +855,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,19 +875,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
         <v>88</v>
-      </c>
-      <c r="F8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,19 +895,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -912,19 +915,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -932,19 +935,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,19 +955,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -972,19 +975,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -992,19 +995,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1012,19 +1015,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,19 +1035,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1052,19 +1055,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1072,19 +1075,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1092,19 +1095,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1112,19 +1115,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,19 +1135,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1157,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1266,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -1281,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1296,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1311,7 +1314,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1326,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1341,7 +1344,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1356,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1431,7 +1434,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1446,7 +1449,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1461,7 +1464,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1476,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -1491,7 +1494,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1506,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1521,7 +1524,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1536,7 +1539,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -1671,7 +1674,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -1686,7 +1689,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1701,7 +1704,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -1716,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1791,7 +1794,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -1806,7 +1809,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -1821,7 +1824,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -1836,7 +1839,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -1851,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -1866,7 +1869,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -1881,7 +1884,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -1896,7 +1899,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -1971,7 +1974,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -1986,7 +1989,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2001,7 +2004,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -2016,7 +2019,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" t="b">
         <v>0</v>
@@ -2031,7 +2034,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" t="b">
         <v>0</v>
@@ -2046,7 +2049,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" t="b">
         <v>0</v>
@@ -2061,7 +2064,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
@@ -2076,7 +2079,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2091,7 +2094,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -2106,7 +2109,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -2121,7 +2124,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -2136,7 +2139,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" t="b">
         <v>1</v>
@@ -2151,7 +2154,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -2166,7 +2169,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -2181,7 +2184,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -2196,7 +2199,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2211,7 +2214,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2226,7 +2229,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -2241,7 +2244,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D72" t="b">
         <v>0</v>
@@ -2256,7 +2259,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -2271,7 +2274,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -2286,7 +2289,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
@@ -2301,7 +2304,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76" t="b">
         <v>1</v>
@@ -2316,7 +2319,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -2331,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -2346,7 +2349,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D79" t="b">
         <v>1</v>
@@ -2361,7 +2364,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -2376,7 +2379,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -2392,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
